--- a/biology/Médecine/Jean_La_Fosse/Jean_La_Fosse.xlsx
+++ b/biology/Médecine/Jean_La_Fosse/Jean_La_Fosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Jean La Fosse[1], né à Montpellier en 1742 et mort en 1775, est un médecin légiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Jean La Fosse, né à Montpellier en 1742 et mort en 1775, est un médecin légiste français.
 Reçu docteur dans sa ville natale en 1764, Lafosse se livra aussitôt à l’enseignement de l’anatomie, de la physiologie et de la médecine, et obtint beaucoup de succès dans ses cours.
 Un examen critique qu’il fit des rapports médico-juridiques d’après lesquels Calas avait été condamné comme meurtrier de son fils, examen pour lequel Voltaire lui envoya des éloges, et qui valut à Lafosse l’amitié de ce célèbre écrivain, l’entraîna à s’occuper de médecine légale. Il ne put mener à terme le travail important qu’il avait entrepris à ce sujet, et dont de nombreux fragments furent insérés, aux côtés de 46 articles sur la médecine légale, dans le Supplément à l’Encyclopédie de Diderot et D’Alembert.
 Lafosse était membre de l’Académie royale des sciences de Montpellier, et les Bulletins de ce corps savant renferment plusieurs mémoires de lui :
@@ -517,7 +529,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Larousse, Grand Dictionnaire universel du XIXe siècle, vol. 10, Paris, Administration du grand Dictionnaire universel, p. 65.
 ↑ Ou Lafosse.
